--- a/Improgress/2. Artifact and Deliverable/Test case/module3/K22T1_TeamBDS_ TC_Xemketquakinhdoanhtuan(mobile).xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module3/K22T1_TeamBDS_ TC_Xemketquakinhdoanhtuan(mobile).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DFCE07-B380-43D3-BF65-F523121061BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADDF8D1-4AF2-4C48-B0F0-253DB96145FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
   <si>
     <t>Author</t>
   </si>
@@ -456,6 +456,54 @@
   </si>
   <si>
     <t xml:space="preserve">Quay về giao diện trang chủ </t>
+  </si>
+  <si>
+    <t>TR-BDS-XKQKD-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kết quả kinh doanh được sắp xếp từ lớn tới nhỏ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xếp hạng kinh doanh phải tương ứng với kết quả kinh doanh </t>
+  </si>
+  <si>
+    <t>TR-BDS-XKQKD-10</t>
+  </si>
+  <si>
+    <t>TC-BDS-XKQKD-15</t>
+  </si>
+  <si>
+    <t>TC-BDS-XKQKD-16</t>
+  </si>
+  <si>
+    <t>TC-BDS-XKQKD-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra 'kết quả kinh doanh được sắp xếp từ lớn tới nhỏ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị 'kết quả kinh doanh được sắp xếp từ lớn tới nhỏ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị 'kết quả kinh doanh được sắp xếp từ lớn tới nhỏ </t>
+  </si>
+  <si>
+    <t>TC-BDS-XKQKD-18</t>
+  </si>
+  <si>
+    <t>TC-BDS-XKQKD-19</t>
+  </si>
+  <si>
+    <t>TC-BDS-XKQKD-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra 'Xếp hạng kinh doanh phải tương ứng với kết quả kinh doanh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị 'Xếp hạng kinh doanh phải tương ứng với kết quả kinh doanh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị Xếp hạng kinh doanh phải tương ứng với kết quả kinh doanh </t>
   </si>
 </sst>
 </file>
@@ -1285,6 +1333,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,27 +1384,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,6 +1444,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,55 +1489,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,31 +1837,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1886,21 +1934,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1909,54 +1957,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="63"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1981,10 +2029,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2001,80 +2049,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="77"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70">
         <v>43575</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2244,7 +2292,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>4</v>
       </c>
@@ -2265,6 +2313,46 @@
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
+        <v>4</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>4</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2290,19 +2378,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E16</xm:sqref>
+          <xm:sqref>E9:E18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G16</xm:sqref>
+          <xm:sqref>G9:G18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F16</xm:sqref>
+          <xm:sqref>F9:F18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2313,11 +2401,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52:D55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2335,18 +2423,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2385,19 +2473,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89">
+      <c r="A4" s="88">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="97" t="s">
         <v>76</v>
       </c>
       <c r="F4" s="45">
@@ -2410,14 +2498,14 @@
       <c r="I4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="86"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="5" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="99"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="45">
         <v>2</v>
       </c>
@@ -2428,14 +2516,14 @@
       <c r="I5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="101"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="99"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="45">
         <v>3</v>
       </c>
@@ -2446,14 +2534,14 @@
       <c r="I6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="45">
         <v>4</v>
       </c>
@@ -2464,20 +2552,20 @@
       <c r="I7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="88"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89">
+      <c r="A8" s="88">
         <v>1</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="97" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="45">
@@ -2490,14 +2578,14 @@
       <c r="I8" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="86"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="99"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="45">
         <v>2</v>
       </c>
@@ -2508,14 +2596,14 @@
       <c r="I9" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="87"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="45">
         <v>3</v>
       </c>
@@ -2526,14 +2614,14 @@
       <c r="I10" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="87"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="100"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="45">
         <v>3</v>
       </c>
@@ -2544,20 +2632,20 @@
       <c r="I11" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89">
+      <c r="A12" s="88">
         <v>1</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="92" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="97" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="45">
@@ -2570,14 +2658,14 @@
       <c r="I12" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="86"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="99"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="45">
         <v>2</v>
       </c>
@@ -2588,14 +2676,14 @@
       <c r="I13" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="99"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="45">
         <v>3</v>
       </c>
@@ -2606,14 +2694,14 @@
       <c r="I14" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="101"/>
     </row>
     <row r="15" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="103"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="45">
         <v>3</v>
       </c>
@@ -2624,22 +2712,22 @@
       <c r="I15" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="88"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="89">
+      <c r="A16" s="88">
         <v>1</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="97" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="45">
@@ -2652,14 +2740,14 @@
       <c r="I16" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="86"/>
+      <c r="J16" s="100"/>
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="99"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="45">
         <v>2</v>
       </c>
@@ -2670,14 +2758,14 @@
       <c r="I17" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="87"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="99"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="45">
         <v>3</v>
       </c>
@@ -2688,14 +2776,14 @@
       <c r="I18" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="87"/>
+      <c r="J18" s="101"/>
     </row>
     <row r="19" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="99"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="45">
         <v>4</v>
       </c>
@@ -2706,14 +2794,14 @@
       <c r="I19" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="87"/>
+      <c r="J19" s="101"/>
     </row>
     <row r="20" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="103"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="100"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="45">
         <v>5</v>
       </c>
@@ -2724,101 +2812,103 @@
       <c r="I20" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="88"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88">
         <v>1</v>
       </c>
-      <c r="B22" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="98" t="s">
+      <c r="B21" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="97" t="s">
         <v>76</v>
       </c>
+      <c r="F21" s="45">
+        <v>1</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="100"/>
+    </row>
+    <row r="22" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="45">
-        <v>1</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="86"/>
-    </row>
-    <row r="23" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="101"/>
+    </row>
+    <row r="23" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="89"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="87"/>
+        <v>104</v>
+      </c>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="100"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="99"/>
       <c r="F24" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H24" s="32"/>
-      <c r="I24" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="88"/>
+      <c r="I24" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89">
+      <c r="A25" s="88">
         <v>1</v>
       </c>
-      <c r="B25" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="98" t="s">
-        <v>76</v>
+      <c r="B25" s="92"/>
+      <c r="C25" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>77</v>
       </c>
       <c r="F25" s="45">
         <v>1</v>
@@ -2830,14 +2920,14 @@
       <c r="I25" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="86"/>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="99"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="98"/>
       <c r="F26" s="45">
         <v>2</v>
       </c>
@@ -2848,14 +2938,14 @@
       <c r="I26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="87"/>
+      <c r="J26" s="101"/>
     </row>
     <row r="27" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="99"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="45">
         <v>3</v>
       </c>
@@ -2866,39 +2956,39 @@
       <c r="I27" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J27" s="87"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="100"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="88"/>
+        <v>135</v>
+      </c>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="89">
+      <c r="A29" s="88">
         <v>1</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="98" t="s">
-        <v>77</v>
+      <c r="B29" s="92"/>
+      <c r="C29" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="97" t="s">
+        <v>78</v>
       </c>
       <c r="F29" s="45">
         <v>1</v>
@@ -2910,14 +3000,14 @@
       <c r="I29" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="86"/>
+      <c r="J29" s="100"/>
     </row>
     <row r="30" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="90"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="99"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="98"/>
       <c r="F30" s="45">
         <v>2</v>
       </c>
@@ -2928,14 +3018,14 @@
       <c r="I30" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="99"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="45">
         <v>3</v>
       </c>
@@ -2944,16 +3034,16 @@
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="87"/>
+        <v>104</v>
+      </c>
+      <c r="J31" s="101"/>
     </row>
     <row r="32" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="100"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="45">
         <v>3</v>
       </c>
@@ -2962,23 +3052,25 @@
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="88"/>
+        <v>134</v>
+      </c>
+      <c r="J32" s="102"/>
     </row>
     <row r="33" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="89">
+      <c r="A33" s="88">
         <v>1</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="98" t="s">
-        <v>78</v>
+      <c r="B33" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="97" t="s">
+        <v>76</v>
       </c>
       <c r="F33" s="45">
         <v>1</v>
@@ -2990,14 +3082,14 @@
       <c r="I33" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="86"/>
+      <c r="J33" s="100"/>
     </row>
     <row r="34" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="90"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="99"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="45">
         <v>2</v>
       </c>
@@ -3008,14 +3100,14 @@
       <c r="I34" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="101"/>
     </row>
     <row r="35" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="99"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="45">
         <v>3</v>
       </c>
@@ -3026,41 +3118,39 @@
       <c r="I35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="101"/>
     </row>
     <row r="36" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="100"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="99"/>
       <c r="F36" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="88"/>
+        <v>141</v>
+      </c>
+      <c r="J36" s="102"/>
     </row>
     <row r="37" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="89">
+      <c r="A37" s="88">
         <v>1</v>
       </c>
-      <c r="B37" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="98" t="s">
-        <v>76</v>
+      <c r="B37" s="92"/>
+      <c r="C37" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="97" t="s">
+        <v>77</v>
       </c>
       <c r="F37" s="45">
         <v>1</v>
@@ -3072,14 +3162,14 @@
       <c r="I37" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J37" s="86"/>
-    </row>
-    <row r="38" spans="1:10" s="40" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="90"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="99"/>
+      <c r="J37" s="100"/>
+    </row>
+    <row r="38" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="89"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="45">
         <v>2</v>
       </c>
@@ -3090,480 +3180,961 @@
       <c r="I38" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="87"/>
-    </row>
-    <row r="39" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="91"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="100"/>
+      <c r="J38" s="101"/>
+    </row>
+    <row r="39" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="89"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="45">
         <v>3</v>
       </c>
-      <c r="G39" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="88"/>
-    </row>
-    <row r="40" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="89">
+      <c r="G39" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="101"/>
+    </row>
+    <row r="40" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="90"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="45">
+        <v>3</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="102"/>
+    </row>
+    <row r="41" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="88">
         <v>1</v>
       </c>
-      <c r="B40" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="45">
+      <c r="B41" s="92"/>
+      <c r="C41" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="45">
         <v>1</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G41" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="47" t="s">
+      <c r="H41" s="39"/>
+      <c r="I41" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="86"/>
-    </row>
-    <row r="41" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="90"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="45">
+      <c r="J41" s="100"/>
+    </row>
+    <row r="42" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="89"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="45">
         <v>2</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G42" s="43" t="s">
         <v>79</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="87"/>
-    </row>
-    <row r="42" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="90"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="45">
-        <v>3</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>80</v>
       </c>
       <c r="H42" s="41"/>
       <c r="I42" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="101"/>
+    </row>
+    <row r="43" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="89"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="45">
+        <v>3</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="41"/>
+      <c r="I43" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J42" s="87"/>
-    </row>
-    <row r="43" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="45">
-        <v>4</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="88"/>
-    </row>
-    <row r="44" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="89">
+      <c r="J43" s="101"/>
+    </row>
+    <row r="44" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="90"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="45">
+        <v>3</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="32"/>
+      <c r="I44" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="102"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="49"/>
+    </row>
+    <row r="46" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="88">
         <v>1</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="45">
+      <c r="B46" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="45">
         <v>1</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G46" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="47" t="s">
+      <c r="H46" s="39"/>
+      <c r="I46" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="86"/>
-    </row>
-    <row r="45" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="45">
+      <c r="J46" s="100"/>
+    </row>
+    <row r="47" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="89"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="45">
         <v>2</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G47" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="33" t="s">
+      <c r="H47" s="41"/>
+      <c r="I47" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="87"/>
-    </row>
-    <row r="46" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="90"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="45">
+      <c r="J47" s="101"/>
+    </row>
+    <row r="48" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="90"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="45">
         <v>3</v>
       </c>
-      <c r="G46" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J46" s="87"/>
-    </row>
-    <row r="47" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="45">
-        <v>3</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="J47" s="88"/>
-    </row>
-    <row r="48" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="89">
+      <c r="G48" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="32"/>
+      <c r="I48" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="102"/>
+    </row>
+    <row r="49" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="88">
         <v>1</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="45">
+      <c r="B49" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="45">
         <v>1</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G49" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="47" t="s">
+      <c r="H49" s="39"/>
+      <c r="I49" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J48" s="86"/>
-    </row>
-    <row r="49" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="45">
+      <c r="J49" s="100"/>
+    </row>
+    <row r="50" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="89"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="45">
         <v>2</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G50" s="43" t="s">
         <v>79</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="87"/>
-    </row>
-    <row r="50" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="45">
-        <v>3</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>80</v>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" s="87"/>
-    </row>
-    <row r="51" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="91"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="J50" s="101"/>
+    </row>
+    <row r="51" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="89"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="45">
         <v>3</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" s="101"/>
+    </row>
+    <row r="52" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="90"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="45">
+        <v>4</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="102"/>
+    </row>
+    <row r="53" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="88">
+        <v>1</v>
+      </c>
+      <c r="B53" s="92"/>
+      <c r="C53" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="45">
+        <v>1</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="100"/>
+    </row>
+    <row r="54" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="89"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="45">
+        <v>2</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="41"/>
+      <c r="I54" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="101"/>
+    </row>
+    <row r="55" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="89"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="45">
+        <v>3</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="101"/>
+    </row>
+    <row r="56" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="90"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="45">
+        <v>3</v>
+      </c>
+      <c r="G56" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="48" t="s">
+      <c r="H56" s="32"/>
+      <c r="I56" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" s="102"/>
+    </row>
+    <row r="57" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="88">
+        <v>1</v>
+      </c>
+      <c r="B57" s="92"/>
+      <c r="C57" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="45">
+        <v>1</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="100"/>
+    </row>
+    <row r="58" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="89"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="45">
+        <v>2</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="41"/>
+      <c r="I58" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="101"/>
+    </row>
+    <row r="59" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="89"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="45">
+        <v>3</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="41"/>
+      <c r="I59" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J59" s="101"/>
+    </row>
+    <row r="60" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="90"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="45">
+        <v>3</v>
+      </c>
+      <c r="G60" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" s="32"/>
+      <c r="I60" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J60" s="102"/>
+    </row>
+    <row r="61" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="88">
+        <v>1</v>
+      </c>
+      <c r="B61" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="45">
+        <v>1</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="100"/>
+    </row>
+    <row r="62" spans="1:10" s="40" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="89"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="45">
+        <v>2</v>
+      </c>
+      <c r="G62" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" s="41"/>
+      <c r="I62" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="101"/>
+    </row>
+    <row r="63" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="90"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="45">
+        <v>3</v>
+      </c>
+      <c r="G63" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H63" s="32"/>
+      <c r="I63" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="102"/>
+    </row>
+    <row r="64" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="88">
+        <v>1</v>
+      </c>
+      <c r="B64" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="45">
+        <v>1</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" s="100"/>
+    </row>
+    <row r="65" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="89"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="45">
+        <v>2</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="41"/>
+      <c r="I65" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J65" s="101"/>
+    </row>
+    <row r="66" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="89"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="45">
+        <v>3</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="41"/>
+      <c r="I66" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J66" s="101"/>
+    </row>
+    <row r="67" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="90"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="45">
+        <v>4</v>
+      </c>
+      <c r="G67" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J67" s="102"/>
+    </row>
+    <row r="68" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="88">
+        <v>1</v>
+      </c>
+      <c r="B68" s="92"/>
+      <c r="C68" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="45">
+        <v>1</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" s="100"/>
+    </row>
+    <row r="69" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="89"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="45">
+        <v>2</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="101"/>
+    </row>
+    <row r="70" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="89"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="45">
+        <v>3</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" s="41"/>
+      <c r="I70" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J70" s="101"/>
+    </row>
+    <row r="71" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="90"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="45">
+        <v>3</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" s="102"/>
+    </row>
+    <row r="72" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="88">
+        <v>1</v>
+      </c>
+      <c r="B72" s="92"/>
+      <c r="C72" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="45">
+        <v>1</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J72" s="100"/>
+    </row>
+    <row r="73" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="89"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="45">
+        <v>2</v>
+      </c>
+      <c r="G73" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="41"/>
+      <c r="I73" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J73" s="101"/>
+    </row>
+    <row r="74" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="89"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="45">
+        <v>3</v>
+      </c>
+      <c r="G74" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="41"/>
+      <c r="I74" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J74" s="101"/>
+    </row>
+    <row r="75" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="90"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="45">
+        <v>3</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="J51" s="88"/>
-    </row>
-    <row r="52" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="89">
+      <c r="J75" s="102"/>
+    </row>
+    <row r="76" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="88">
         <v>1</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B76" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C76" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="95" t="s">
+      <c r="D76" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="E76" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F76" s="45">
         <v>1</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G76" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="47" t="s">
+      <c r="H76" s="39"/>
+      <c r="I76" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J52" s="86"/>
-    </row>
-    <row r="53" spans="1:10" s="40" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="45">
+      <c r="J76" s="100"/>
+    </row>
+    <row r="77" spans="1:10" s="40" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="89"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="45">
         <v>2</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G77" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="33" t="s">
+      <c r="H77" s="41"/>
+      <c r="I77" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J53" s="87"/>
-    </row>
-    <row r="54" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="90"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="45">
+      <c r="J77" s="101"/>
+    </row>
+    <row r="78" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="89"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="45">
         <v>3</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G78" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="105" t="s">
+      <c r="H78" s="41"/>
+      <c r="I78" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J54" s="87"/>
-    </row>
-    <row r="55" spans="1:10" s="44" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="45">
+      <c r="J78" s="101"/>
+    </row>
+    <row r="79" spans="1:10" s="44" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="90"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="45">
         <v>4</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G79" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="50" t="s">
+      <c r="H79" s="32"/>
+      <c r="I79" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="88"/>
-    </row>
-    <row r="56" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="89">
+      <c r="J79" s="102"/>
+    </row>
+    <row r="80" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="88">
         <v>1</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B80" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="C80" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="D80" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="98" t="s">
+      <c r="E80" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F80" s="45">
         <v>1</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G80" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="47" t="s">
+      <c r="H80" s="39"/>
+      <c r="I80" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J56" s="86"/>
-    </row>
-    <row r="57" spans="1:10" s="40" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="45">
+      <c r="J80" s="100"/>
+    </row>
+    <row r="81" spans="1:10" s="40" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="89"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="45">
         <v>2</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G81" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="33" t="s">
+      <c r="H81" s="41"/>
+      <c r="I81" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="87"/>
-    </row>
-    <row r="58" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="90"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="45">
+      <c r="J81" s="101"/>
+    </row>
+    <row r="82" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="89"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="45">
         <v>3</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G82" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="105" t="s">
+      <c r="H82" s="41"/>
+      <c r="I82" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J58" s="87"/>
-    </row>
-    <row r="59" spans="1:10" s="44" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="91"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="45">
+      <c r="J82" s="101"/>
+    </row>
+    <row r="83" spans="1:10" s="44" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="90"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="45">
         <v>4</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="G83" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="H59" s="32"/>
-      <c r="I59" s="50" t="s">
+      <c r="H83" s="32"/>
+      <c r="I83" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="J59" s="88"/>
+      <c r="J83" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
+  <mergeCells count="112">
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="B33:B44"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="D33:D36"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="J33:J36"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B36"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="E25:E28"/>
+    <mergeCell ref="J25:J28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="J68:J71"/>
     <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="A45:I45"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C4:C7"/>
@@ -3578,26 +4149,59 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="B4:B15"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B60"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/module3/K22T1_TeamBDS_ TC_Xemketquakinhdoanhtuan(mobile).xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module3/K22T1_TeamBDS_ TC_Xemketquakinhdoanhtuan(mobile).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADDF8D1-4AF2-4C48-B0F0-253DB96145FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1C948-C9F2-4A27-96D0-18320857DC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="156">
   <si>
     <t>Author</t>
   </si>
@@ -67,13 +67,7 @@
     <t>Description of Changes</t>
   </si>
   <si>
-    <t>&lt;dd-Mmm-yyyy&gt;</t>
-  </si>
-  <si>
     <t>Document Name</t>
-  </si>
-  <si>
-    <t>0.1</t>
   </si>
   <si>
     <t>GUI &amp; FUNCTIONAL TEST CASES</t>
@@ -194,9 +188,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>Follow new version of template</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>Fix some defects in TCs</t>
   </si>
   <si>
     <t xml:space="preserve">Trịnh Như Phương </t>
@@ -461,12 +449,6 @@
     <t>TR-BDS-XKQKD-9</t>
   </si>
   <si>
-    <t xml:space="preserve">kết quả kinh doanh được sắp xếp từ lớn tới nhỏ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xếp hạng kinh doanh phải tương ứng với kết quả kinh doanh </t>
-  </si>
-  <si>
     <t>TR-BDS-XKQKD-10</t>
   </si>
   <si>
@@ -504,6 +486,66 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thị Xếp hạng kinh doanh phải tương ứng với kết quả kinh doanh </t>
+  </si>
+  <si>
+    <t>TR-BDS-XKQKD-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị kết quả kinh doanh được sắp xếp từ lớn tới nhỏ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị xếp hạng kinh doanh phải tương ứng với kết quả kinh doanh </t>
+  </si>
+  <si>
+    <t>Hiển thị những người cùng kết quả kinh doanh sẽ có cùng xếp hạng</t>
+  </si>
+  <si>
+    <t>Trong giao diện "xem kết quả kinh doanh " nhấn " Phòng   "</t>
+  </si>
+  <si>
+    <t>Trong giao diện "xem kết quả kinh doanh " nhấn " phòng   "</t>
+  </si>
+  <si>
+    <t>Trong giao diện "xem kết quả kinh doanh " nhấn " Phòng  "</t>
+  </si>
+  <si>
+    <t>Trong giao diện "xem kết quả kinh doanh " nhấn " Phòng "</t>
+  </si>
+  <si>
+    <t>Kiểm tra ''Hiển thị những nhân viên , nhóm , phòng  cùng kết quả kinh doanh sẽ có cùng xếp hạng</t>
+  </si>
+  <si>
+    <t>Hiển thị những nhóm  cùng kết quả kinh doanh sẽ có cùng xếp hạng</t>
+  </si>
+  <si>
+    <t>Hiển thị những nhân viên  cùng kết quả kinh doanh sẽ có cùng xếp hạng</t>
+  </si>
+  <si>
+    <t>Hiển thị những phòng  cùng kết quả kinh doanh sẽ có cùng xếp hạng</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass </t>
+  </si>
+  <si>
+    <t>13/6/2020</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update &amp;complete </t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -1339,6 +1381,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,30 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1822,7 +1864,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1837,31 +1879,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1879,52 +1921,58 @@
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7" s="12">
         <v>43941</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43979</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43988</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>152</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43995</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1934,21 +1982,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="B12" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
+      <c r="B14" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1957,55 +2005,56 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="57"/>
+      <c r="D15" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="65"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2029,10 +2078,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2099,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -2066,29 +2115,29 @@
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="78" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="84" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="85"/>
       <c r="E3" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="84"/>
       <c r="G3" s="86"/>
@@ -2096,7 +2145,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="70">
@@ -2104,17 +2153,17 @@
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="G4" s="72"/>
       <c r="H4" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="74"/>
       <c r="C7" s="74"/>
@@ -2129,230 +2178,264 @@
         <v>2</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="27">
+        <v>1</v>
+      </c>
       <c r="B9" s="38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="27">
+        <v>2</v>
+      </c>
       <c r="B10" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="27">
+        <v>4</v>
+      </c>
       <c r="B12" s="38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="27">
+        <v>7</v>
+      </c>
       <c r="B15" s="38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="34"/>
+        <v>122</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="35" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="35" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>11</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2378,19 +2461,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E18</xm:sqref>
+          <xm:sqref>E9:E19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G18</xm:sqref>
+          <xm:sqref>G9:G19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F18</xm:sqref>
+          <xm:sqref>F9:F19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2401,11 +2484,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" s="105"/>
       <c r="C1" s="105"/>
@@ -2447,16 +2530,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
@@ -2469,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2477,28 +2560,30 @@
         <v>1</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="97" t="s">
-        <v>76</v>
-      </c>
       <c r="F4" s="45">
         <v>1</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="89"/>
@@ -2510,11 +2595,11 @@
         <v>2</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J5" s="101"/>
     </row>
@@ -2528,11 +2613,11 @@
         <v>3</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6" s="101"/>
     </row>
@@ -2546,11 +2631,11 @@
         <v>4</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J7" s="102"/>
     </row>
@@ -2560,25 +2645,27 @@
       </c>
       <c r="B8" s="92"/>
       <c r="C8" s="91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F8" s="45">
         <v>1</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="89"/>
@@ -2590,11 +2677,11 @@
         <v>2</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J9" s="101"/>
     </row>
@@ -2608,11 +2695,11 @@
         <v>3</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J10" s="101"/>
     </row>
@@ -2626,11 +2713,11 @@
         <v>3</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J11" s="102"/>
     </row>
@@ -2640,25 +2727,27 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="91" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F12" s="45">
         <v>1</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J12" s="100" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="89"/>
@@ -2670,11 +2759,11 @@
         <v>2</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J13" s="101"/>
     </row>
@@ -2688,11 +2777,11 @@
         <v>3</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J14" s="101"/>
     </row>
@@ -2706,11 +2795,11 @@
         <v>3</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J15" s="102"/>
     </row>
@@ -2719,28 +2808,30 @@
         <v>1</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E16" s="97" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F16" s="45">
         <v>1</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J16" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="89"/>
@@ -2752,11 +2843,11 @@
         <v>2</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J17" s="101"/>
     </row>
@@ -2770,11 +2861,11 @@
         <v>3</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J18" s="101"/>
     </row>
@@ -2788,11 +2879,11 @@
         <v>4</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J19" s="101"/>
     </row>
@@ -2806,93 +2897,91 @@
         <v>5</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J20" s="102"/>
     </row>
-    <row r="21" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88">
-        <v>1</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="45">
-        <v>1</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="100"/>
-    </row>
-    <row r="22" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="98"/>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="88">
+        <v>1</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" s="45">
-        <v>2</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="101"/>
-    </row>
-    <row r="23" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="89"/>
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
       <c r="D23" s="95"/>
       <c r="E23" s="98"/>
       <c r="F23" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="33" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
-      <c r="B24" s="92"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="96"/>
       <c r="E24" s="99"/>
       <c r="F24" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" s="32"/>
-      <c r="I24" s="48" t="s">
-        <v>135</v>
+      <c r="I24" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="J24" s="102"/>
     </row>
@@ -2900,27 +2989,31 @@
       <c r="A25" s="88">
         <v>1</v>
       </c>
-      <c r="B25" s="92"/>
+      <c r="B25" s="91" t="s">
+        <v>65</v>
+      </c>
       <c r="C25" s="91" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E25" s="97" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F25" s="45">
         <v>1</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J25" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="26" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="89"/>
@@ -2932,11 +3025,11 @@
         <v>2</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J26" s="101"/>
     </row>
@@ -2950,29 +3043,29 @@
         <v>3</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H27" s="41"/>
       <c r="I27" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="96"/>
       <c r="E28" s="99"/>
       <c r="F28" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="48" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="J28" s="102"/>
     </row>
@@ -2982,25 +3075,27 @@
       </c>
       <c r="B29" s="92"/>
       <c r="C29" s="91" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="D29" s="94" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E29" s="97" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F29" s="45">
         <v>1</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J29" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="89"/>
@@ -3012,11 +3107,11 @@
         <v>2</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J30" s="101"/>
     </row>
@@ -3030,29 +3125,29 @@
         <v>3</v>
       </c>
       <c r="G31" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J31" s="101"/>
     </row>
     <row r="32" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="90"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="96"/>
       <c r="E32" s="99"/>
       <c r="F32" s="45">
         <v>3</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="48" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="J32" s="102"/>
     </row>
@@ -3060,29 +3155,29 @@
       <c r="A33" s="88">
         <v>1</v>
       </c>
-      <c r="B33" s="91" t="s">
-        <v>129</v>
-      </c>
+      <c r="B33" s="92"/>
       <c r="C33" s="91" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E33" s="97" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="45">
         <v>1</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J33" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="34" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="89"/>
@@ -3094,11 +3189,11 @@
         <v>2</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J34" s="101"/>
     </row>
@@ -3112,29 +3207,29 @@
         <v>3</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H35" s="41"/>
       <c r="I35" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J35" s="101"/>
     </row>
     <row r="36" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="96"/>
       <c r="E36" s="99"/>
       <c r="F36" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="48" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="J36" s="102"/>
     </row>
@@ -3142,29 +3237,33 @@
       <c r="A37" s="88">
         <v>1</v>
       </c>
-      <c r="B37" s="92"/>
+      <c r="B37" s="91" t="s">
+        <v>66</v>
+      </c>
       <c r="C37" s="91" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="E37" s="97" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F37" s="45">
         <v>1</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" s="100"/>
-    </row>
-    <row r="38" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="J37" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="40" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="89"/>
       <c r="B38" s="92"/>
       <c r="C38" s="92"/>
@@ -3174,511 +3273,529 @@
         <v>2</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H38" s="41"/>
       <c r="I38" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J38" s="101"/>
     </row>
-    <row r="39" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="89"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="98"/>
+    <row r="39" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="90"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="99"/>
       <c r="F39" s="45">
         <v>3</v>
       </c>
-      <c r="G39" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J39" s="101"/>
-    </row>
-    <row r="40" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="90"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="99"/>
+      <c r="G39" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="102"/>
+    </row>
+    <row r="40" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="88">
+        <v>1</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>72</v>
+      </c>
       <c r="F40" s="45">
-        <v>3</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="J40" s="102"/>
-    </row>
-    <row r="41" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="88">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="89"/>
       <c r="B41" s="92"/>
-      <c r="C41" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="97" t="s">
-        <v>78</v>
-      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="98"/>
       <c r="F41" s="45">
-        <v>1</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="100"/>
-    </row>
-    <row r="42" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" s="101"/>
+    </row>
+    <row r="42" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="89"/>
       <c r="B42" s="92"/>
       <c r="C42" s="92"/>
       <c r="D42" s="95"/>
       <c r="E42" s="98"/>
       <c r="F42" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H42" s="41"/>
       <c r="I42" s="33" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J42" s="101"/>
     </row>
-    <row r="43" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="89"/>
+    <row r="43" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="90"/>
       <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="98"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="99"/>
       <c r="F43" s="45">
+        <v>4</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="102"/>
+    </row>
+    <row r="44" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="88">
+        <v>1</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="45">
+        <v>1</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="89"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="101"/>
+    </row>
+    <row r="46" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="89"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="45">
         <v>3</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G46" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="101"/>
+    </row>
+    <row r="47" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="90"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="45">
+        <v>3</v>
+      </c>
+      <c r="G47" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="33" t="s">
+      <c r="H47" s="32"/>
+      <c r="I47" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="102"/>
+    </row>
+    <row r="48" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="88">
+        <v>1</v>
+      </c>
+      <c r="B48" s="92"/>
+      <c r="C48" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="J43" s="101"/>
-    </row>
-    <row r="44" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="45">
-        <v>3</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="J44" s="102"/>
-    </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="49"/>
-    </row>
-    <row r="46" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="88">
-        <v>1</v>
-      </c>
-      <c r="B46" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="45">
-        <v>1</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" s="100"/>
-    </row>
-    <row r="47" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="45">
+      <c r="D48" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="45">
+        <v>1</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="89"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="45">
         <v>2</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G49" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" s="101"/>
-    </row>
-    <row r="48" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="45">
-        <v>3</v>
-      </c>
-      <c r="G48" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48" s="102"/>
-    </row>
-    <row r="49" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="88">
-        <v>1</v>
-      </c>
-      <c r="B49" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="45">
-        <v>1</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="100"/>
-    </row>
-    <row r="50" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="101"/>
+    </row>
+    <row r="50" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="89"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92"/>
       <c r="D50" s="95"/>
       <c r="E50" s="98"/>
       <c r="F50" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="33" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J50" s="101"/>
     </row>
-    <row r="51" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="89"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="98"/>
+    <row r="51" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="90"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="99"/>
       <c r="F51" s="45">
         <v>3</v>
       </c>
-      <c r="G51" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J51" s="101"/>
-    </row>
-    <row r="52" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="99"/>
+      <c r="G51" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="102"/>
+    </row>
+    <row r="52" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="88">
+        <v>1</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="97" t="s">
+        <v>72</v>
+      </c>
       <c r="F52" s="45">
-        <v>4</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="J52" s="102"/>
-    </row>
-    <row r="53" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="88">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="40" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="89"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="97" t="s">
-        <v>77</v>
-      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="98"/>
       <c r="F53" s="45">
-        <v>1</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J53" s="100"/>
-    </row>
-    <row r="54" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="41"/>
+      <c r="I53" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" s="101"/>
+    </row>
+    <row r="54" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="89"/>
       <c r="B54" s="92"/>
       <c r="C54" s="92"/>
       <c r="D54" s="95"/>
       <c r="E54" s="98"/>
       <c r="F54" s="45">
+        <v>3</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="41"/>
+      <c r="I54" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="101"/>
+    </row>
+    <row r="55" spans="1:10" s="44" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="90"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="45">
+        <v>4</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" s="102"/>
+    </row>
+    <row r="56" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="88">
+        <v>1</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="45">
+        <v>1</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="40" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="89"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="45">
         <v>2</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G57" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="41"/>
+      <c r="I57" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="101"/>
-    </row>
-    <row r="55" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="89"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="45">
-        <v>3</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J55" s="101"/>
-    </row>
-    <row r="56" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="45">
-        <v>3</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="J56" s="102"/>
-    </row>
-    <row r="57" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="88">
-        <v>1</v>
-      </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="45">
-        <v>1</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" s="100"/>
-    </row>
-    <row r="58" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="101"/>
+    </row>
+    <row r="58" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="89"/>
       <c r="B58" s="92"/>
       <c r="C58" s="92"/>
       <c r="D58" s="95"/>
       <c r="E58" s="98"/>
       <c r="F58" s="45">
+        <v>3</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="41"/>
+      <c r="I58" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="101"/>
+    </row>
+    <row r="59" spans="1:10" s="44" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="90"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="45">
+        <v>4</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" s="102"/>
+    </row>
+    <row r="60" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="88">
+        <v>1</v>
+      </c>
+      <c r="B60" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="45">
+        <v>1</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="89"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="45">
         <v>2</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G61" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61" s="41"/>
+      <c r="I61" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J58" s="101"/>
-    </row>
-    <row r="59" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="89"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="45">
-        <v>3</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J59" s="101"/>
-    </row>
-    <row r="60" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="45">
-        <v>3</v>
-      </c>
-      <c r="G60" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="32"/>
-      <c r="I60" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="102"/>
-    </row>
-    <row r="61" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="88">
-        <v>1</v>
-      </c>
-      <c r="B61" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="45">
-        <v>1</v>
-      </c>
-      <c r="G61" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J61" s="100"/>
-    </row>
-    <row r="62" spans="1:10" s="40" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="101"/>
+    </row>
+    <row r="62" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="89"/>
       <c r="B62" s="92"/>
       <c r="C62" s="92"/>
       <c r="D62" s="95"/>
       <c r="E62" s="98"/>
       <c r="F62" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H62" s="41"/>
       <c r="I62" s="33" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J62" s="101"/>
     </row>
     <row r="63" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
-      <c r="B63" s="93"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="93"/>
       <c r="D63" s="96"/>
       <c r="E63" s="99"/>
       <c r="F63" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H63" s="32"/>
-      <c r="I63" s="50" t="s">
-        <v>65</v>
+      <c r="I63" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="J63" s="102"/>
     </row>
@@ -3686,29 +3803,29 @@
       <c r="A64" s="88">
         <v>1</v>
       </c>
-      <c r="B64" s="91" t="s">
-        <v>71</v>
-      </c>
+      <c r="B64" s="92"/>
       <c r="C64" s="91" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D64" s="94" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E64" s="97" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F64" s="45">
         <v>1</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J64" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J64" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="65" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="89"/>
@@ -3720,11 +3837,11 @@
         <v>2</v>
       </c>
       <c r="G65" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H65" s="41"/>
       <c r="I65" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J65" s="101"/>
     </row>
@@ -3738,11 +3855,11 @@
         <v>3</v>
       </c>
       <c r="G66" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H66" s="41"/>
       <c r="I66" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J66" s="101"/>
     </row>
@@ -3753,14 +3870,14 @@
       <c r="D67" s="96"/>
       <c r="E67" s="99"/>
       <c r="F67" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="32"/>
       <c r="I67" s="48" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="J67" s="102"/>
     </row>
@@ -3770,25 +3887,27 @@
       </c>
       <c r="B68" s="92"/>
       <c r="C68" s="91" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D68" s="94" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E68" s="97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F68" s="45">
         <v>1</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J68" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J68" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="69" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="89"/>
@@ -3800,11 +3919,11 @@
         <v>2</v>
       </c>
       <c r="G69" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H69" s="41"/>
       <c r="I69" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J69" s="101"/>
     </row>
@@ -3818,17 +3937,17 @@
         <v>3</v>
       </c>
       <c r="G70" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H70" s="41"/>
       <c r="I70" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J70" s="101"/>
     </row>
     <row r="71" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
-      <c r="B71" s="92"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="93"/>
       <c r="D71" s="96"/>
       <c r="E71" s="99"/>
@@ -3836,11 +3955,11 @@
         <v>3</v>
       </c>
       <c r="G71" s="46" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="H71" s="32"/>
       <c r="I71" s="48" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="J71" s="102"/>
     </row>
@@ -3848,27 +3967,31 @@
       <c r="A72" s="88">
         <v>1</v>
       </c>
-      <c r="B72" s="92"/>
+      <c r="B72" s="91" t="s">
+        <v>123</v>
+      </c>
       <c r="C72" s="91" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D72" s="94" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E72" s="97" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F72" s="45">
         <v>1</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J72" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="J72" s="100" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="73" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="89"/>
@@ -3880,11 +4003,11 @@
         <v>2</v>
       </c>
       <c r="G73" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H73" s="41"/>
       <c r="I73" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J73" s="101"/>
     </row>
@@ -3898,29 +4021,29 @@
         <v>3</v>
       </c>
       <c r="G74" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H74" s="41"/>
       <c r="I74" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J74" s="101"/>
     </row>
     <row r="75" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
-      <c r="B75" s="103"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="93"/>
       <c r="D75" s="96"/>
       <c r="E75" s="99"/>
       <c r="F75" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75" s="46" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H75" s="32"/>
       <c r="I75" s="48" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="J75" s="102"/>
     </row>
@@ -3928,31 +4051,31 @@
       <c r="A76" s="88">
         <v>1</v>
       </c>
-      <c r="B76" s="91" t="s">
-        <v>114</v>
-      </c>
+      <c r="B76" s="92"/>
       <c r="C76" s="91" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D76" s="94" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E76" s="97" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F76" s="45">
         <v>1</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J76" s="100"/>
-    </row>
-    <row r="77" spans="1:10" s="40" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="J76" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="89"/>
       <c r="B77" s="92"/>
       <c r="C77" s="92"/>
@@ -3962,11 +4085,11 @@
         <v>2</v>
       </c>
       <c r="G77" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J77" s="101"/>
     </row>
@@ -3980,29 +4103,29 @@
         <v>3</v>
       </c>
       <c r="G78" s="43" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H78" s="41"/>
-      <c r="I78" s="52" t="s">
-        <v>62</v>
+      <c r="I78" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="J78" s="101"/>
     </row>
-    <row r="79" spans="1:10" s="44" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
-      <c r="B79" s="93"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="93"/>
       <c r="D79" s="96"/>
       <c r="E79" s="99"/>
       <c r="F79" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G79" s="46" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="H79" s="32"/>
-      <c r="I79" s="50" t="s">
-        <v>123</v>
+      <c r="I79" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="J79" s="102"/>
     </row>
@@ -4010,31 +4133,31 @@
       <c r="A80" s="88">
         <v>1</v>
       </c>
-      <c r="B80" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="B80" s="92"/>
       <c r="C80" s="91" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D80" s="94" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E80" s="97" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F80" s="45">
         <v>1</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J80" s="100"/>
-    </row>
-    <row r="81" spans="1:10" s="40" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="J80" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="89"/>
       <c r="B81" s="92"/>
       <c r="C81" s="92"/>
@@ -4044,11 +4167,11 @@
         <v>2</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J81" s="101"/>
     </row>
@@ -4062,79 +4185,378 @@
         <v>3</v>
       </c>
       <c r="G82" s="43" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H82" s="41"/>
-      <c r="I82" s="52" t="s">
-        <v>62</v>
+      <c r="I82" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="J82" s="101"/>
     </row>
-    <row r="83" spans="1:10" s="44" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="90"/>
-      <c r="B83" s="93"/>
+      <c r="B83" s="103"/>
       <c r="C83" s="93"/>
       <c r="D83" s="96"/>
       <c r="E83" s="99"/>
       <c r="F83" s="45">
+        <v>3</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="32"/>
+      <c r="I83" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J83" s="102"/>
+    </row>
+    <row r="84" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="88">
+        <v>1</v>
+      </c>
+      <c r="B84" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="45">
+        <v>1</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" s="39"/>
+      <c r="I84" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J84" s="100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="89"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="45">
+        <v>2</v>
+      </c>
+      <c r="G85" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H85" s="41"/>
+      <c r="I85" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J85" s="101"/>
+    </row>
+    <row r="86" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="89"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="98"/>
+      <c r="F86" s="45">
+        <v>3</v>
+      </c>
+      <c r="G86" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" s="41"/>
+      <c r="I86" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J86" s="101"/>
+    </row>
+    <row r="87" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="90"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="45">
         <v>4</v>
       </c>
-      <c r="G83" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H83" s="32"/>
-      <c r="I83" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="J83" s="102"/>
+      <c r="G87" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" s="32"/>
+      <c r="I87" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="J87" s="102"/>
+    </row>
+    <row r="88" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="88">
+        <v>1</v>
+      </c>
+      <c r="B88" s="92"/>
+      <c r="C88" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="45">
+        <v>1</v>
+      </c>
+      <c r="G88" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J88" s="100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="89"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="45">
+        <v>2</v>
+      </c>
+      <c r="G89" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="41"/>
+      <c r="I89" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J89" s="101"/>
+    </row>
+    <row r="90" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="89"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="45">
+        <v>3</v>
+      </c>
+      <c r="G90" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="41"/>
+      <c r="I90" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J90" s="101"/>
+    </row>
+    <row r="91" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="90"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="45">
+        <v>3</v>
+      </c>
+      <c r="G91" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="J91" s="102"/>
+    </row>
+    <row r="92" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="88">
+        <v>1</v>
+      </c>
+      <c r="B92" s="92"/>
+      <c r="C92" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="45">
+        <v>1</v>
+      </c>
+      <c r="G92" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J92" s="100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="89"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="45">
+        <v>2</v>
+      </c>
+      <c r="G93" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" s="41"/>
+      <c r="I93" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J93" s="101"/>
+    </row>
+    <row r="94" spans="1:10" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="89"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="45">
+        <v>3</v>
+      </c>
+      <c r="G94" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" s="41"/>
+      <c r="I94" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J94" s="101"/>
+    </row>
+    <row r="95" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="90"/>
+      <c r="B95" s="103"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="45">
+        <v>3</v>
+      </c>
+      <c r="G95" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" s="32"/>
+      <c r="I95" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="J95" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="B33:B44"/>
+  <mergeCells count="128">
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="D33:D36"/>
     <mergeCell ref="E33:E36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C4:C7"/>
@@ -4149,59 +4571,24 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="B4:B15"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
     <mergeCell ref="A33:A36"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B60"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4225,51 +4612,51 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
